--- a/charts.xlsx
+++ b/charts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projet\Projet_CESI\2025-2026\IR\Projets\Mario-AI-Framework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DDC45B4-8625-4A51-88C2-D8A4530C64B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA5A0F8D-CEC8-4E3F-A68D-7865C20B2D0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -737,9 +737,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -911,6 +910,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-521D-443C-A654-1B04D6F3BFDC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -930,6 +934,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-521D-443C-A654-1B04D6F3BFDC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -949,6 +958,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-521D-443C-A654-1B04D6F3BFDC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -1892,9 +1906,9 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AE28E6FB-A5F1-402A-B0C1-4C3E8CA09B26}" name="log_" displayName="log_" ref="A6:AA139" tableType="queryTable" headerRowCount="0" totalsRowCount="1">
   <tableColumns count="27">
-    <tableColumn id="1" xr3:uid="{EE5267FF-EB96-476A-921C-8BFDD1D827C6}" uniqueName="1" name="LevelPath" queryTableFieldId="1" dataDxfId="3" totalsRowDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{9D4D3794-ECB6-468A-8453-7BF88384C258}" uniqueName="2" name="AgentName" queryTableFieldId="2" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{E0416DE5-301F-4C17-B647-3072A4972E14}" uniqueName="3" name="GameStatus" totalsRowLabel="NBSI" queryTableFieldId="3" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{EE5267FF-EB96-476A-921C-8BFDD1D827C6}" uniqueName="1" name="LevelPath" queryTableFieldId="1" dataDxfId="4" totalsRowDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{9D4D3794-ECB6-468A-8453-7BF88384C258}" uniqueName="2" name="AgentName" queryTableFieldId="2" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{E0416DE5-301F-4C17-B647-3072A4972E14}" uniqueName="3" name="GameStatus" totalsRowLabel="NBSI" queryTableFieldId="3" dataDxfId="1"/>
     <tableColumn id="4" xr3:uid="{2DE4F676-2B3E-4401-8294-33A3AA9D0588}" uniqueName="4" name="Completion" totalsRowLabel="AVG" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{D1FEB9BA-735F-4551-B7D8-247AA8DF6282}" uniqueName="5" name="Lives" queryTableFieldId="5"/>
     <tableColumn id="6" xr3:uid="{C8C71625-81CC-45B1-9C98-F65C5ED61729}" uniqueName="6" name="Coins" queryTableFieldId="6"/>
@@ -1918,7 +1932,7 @@
     <tableColumn id="24" xr3:uid="{3AD08C37-6BD6-4E41-AFDC-16B9EBC7C6C8}" uniqueName="24" name="StructuralDiversity" queryTableFieldId="24"/>
     <tableColumn id="25" xr3:uid="{3CA8CEB9-8FAA-44A7-8757-11DE71E2035D}" uniqueName="25" name="UnjumpableHoles" queryTableFieldId="25"/>
     <tableColumn id="26" xr3:uid="{00A0BB63-A81A-491B-B6BB-ABC32D7B9C1C}" uniqueName="26" name="TotalVerticalHoles" queryTableFieldId="26"/>
-    <tableColumn id="27" xr3:uid="{FCF190F0-72BD-447B-A1C3-D596D42C18B2}" uniqueName="27" name="LargeVerticalHolesDetail" queryTableFieldId="27" dataDxfId="4"/>
+    <tableColumn id="27" xr3:uid="{FCF190F0-72BD-447B-A1C3-D596D42C18B2}" uniqueName="27" name="LargeVerticalHolesDetail" queryTableFieldId="27" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2141,8 +2155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB3" sqref="AB3"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2582,13 +2596,13 @@
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>29</v>
       </c>
       <c r="D6">
@@ -2660,18 +2674,18 @@
       <c r="Z6">
         <v>8</v>
       </c>
-      <c r="AA6" s="1" t="s">
+      <c r="AA6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>31</v>
       </c>
       <c r="D7">
@@ -2743,18 +2757,18 @@
       <c r="Z7">
         <v>8</v>
       </c>
-      <c r="AA7" s="1" t="s">
+      <c r="AA7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>29</v>
       </c>
       <c r="D8">
@@ -2826,18 +2840,18 @@
       <c r="Z8">
         <v>9</v>
       </c>
-      <c r="AA8" s="1" t="s">
+      <c r="AA8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>29</v>
       </c>
       <c r="D9">
@@ -2909,18 +2923,18 @@
       <c r="Z9">
         <v>8</v>
       </c>
-      <c r="AA9" s="1" t="s">
+      <c r="AA9" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>31</v>
       </c>
       <c r="D10">
@@ -2992,18 +3006,18 @@
       <c r="Z10">
         <v>13</v>
       </c>
-      <c r="AA10" s="1" t="s">
+      <c r="AA10" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>31</v>
       </c>
       <c r="D11">
@@ -3075,18 +3089,18 @@
       <c r="Z11">
         <v>13</v>
       </c>
-      <c r="AA11" s="1" t="s">
+      <c r="AA11" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>29</v>
       </c>
       <c r="D12">
@@ -3158,18 +3172,18 @@
       <c r="Z12">
         <v>9</v>
       </c>
-      <c r="AA12" s="1" t="s">
+      <c r="AA12" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" t="s">
         <v>31</v>
       </c>
       <c r="D13">
@@ -3241,18 +3255,18 @@
       <c r="Z13">
         <v>7</v>
       </c>
-      <c r="AA13" s="1" t="s">
+      <c r="AA13" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s">
         <v>31</v>
       </c>
       <c r="D14">
@@ -3324,18 +3338,18 @@
       <c r="Z14">
         <v>4</v>
       </c>
-      <c r="AA14" s="1" t="s">
+      <c r="AA14" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
         <v>31</v>
       </c>
       <c r="D15">
@@ -3407,18 +3421,18 @@
       <c r="Z15">
         <v>8</v>
       </c>
-      <c r="AA15" s="1" t="s">
+      <c r="AA15" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" t="s">
         <v>46</v>
       </c>
       <c r="D16">
@@ -3490,18 +3504,18 @@
       <c r="Z16">
         <v>12</v>
       </c>
-      <c r="AA16" s="1" t="s">
+      <c r="AA16" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" t="s">
         <v>29</v>
       </c>
       <c r="D17">
@@ -3573,18 +3587,18 @@
       <c r="Z17">
         <v>8</v>
       </c>
-      <c r="AA17" s="1" t="s">
+      <c r="AA17" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" t="s">
         <v>31</v>
       </c>
       <c r="D18">
@@ -3656,18 +3670,18 @@
       <c r="Z18">
         <v>9</v>
       </c>
-      <c r="AA18" s="1" t="s">
+      <c r="AA18" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" t="s">
         <v>46</v>
       </c>
       <c r="D19">
@@ -3739,18 +3753,18 @@
       <c r="Z19">
         <v>4</v>
       </c>
-      <c r="AA19" s="1" t="s">
+      <c r="AA19" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" t="s">
         <v>31</v>
       </c>
       <c r="D20">
@@ -3822,18 +3836,18 @@
       <c r="Z20">
         <v>10</v>
       </c>
-      <c r="AA20" s="1" t="s">
+      <c r="AA20" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="A21" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" t="s">
         <v>46</v>
       </c>
       <c r="D21">
@@ -3905,18 +3919,18 @@
       <c r="Z21">
         <v>8</v>
       </c>
-      <c r="AA21" s="1" t="s">
+      <c r="AA21" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="A22" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" t="s">
         <v>46</v>
       </c>
       <c r="D22">
@@ -3988,18 +4002,18 @@
       <c r="Z22">
         <v>10</v>
       </c>
-      <c r="AA22" s="1" t="s">
+      <c r="AA22" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="A23" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" t="s">
         <v>31</v>
       </c>
       <c r="D23">
@@ -4071,18 +4085,18 @@
       <c r="Z23">
         <v>8</v>
       </c>
-      <c r="AA23" s="1" t="s">
+      <c r="AA23" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" t="s">
         <v>29</v>
       </c>
       <c r="D24">
@@ -4154,18 +4168,18 @@
       <c r="Z24">
         <v>5</v>
       </c>
-      <c r="AA24" s="1" t="s">
+      <c r="AA24" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" t="s">
         <v>56</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" t="s">
         <v>31</v>
       </c>
       <c r="D25">
@@ -4237,18 +4251,18 @@
       <c r="Z25">
         <v>8</v>
       </c>
-      <c r="AA25" s="1" t="s">
+      <c r="AA25" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="A26" t="s">
         <v>58</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" t="s">
         <v>46</v>
       </c>
       <c r="D26">
@@ -4320,18 +4334,18 @@
       <c r="Z26">
         <v>15</v>
       </c>
-      <c r="AA26" s="1" t="s">
+      <c r="AA26" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="A27" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" t="s">
         <v>31</v>
       </c>
       <c r="D27">
@@ -4403,18 +4417,18 @@
       <c r="Z27">
         <v>1</v>
       </c>
-      <c r="AA27" s="1" t="s">
+      <c r="AA27" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="A28" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" t="s">
         <v>46</v>
       </c>
       <c r="D28">
@@ -4486,18 +4500,18 @@
       <c r="Z28">
         <v>16</v>
       </c>
-      <c r="AA28" s="1" t="s">
+      <c r="AA28" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="A29" t="s">
         <v>63</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" t="s">
         <v>29</v>
       </c>
       <c r="D29">
@@ -4569,18 +4583,18 @@
       <c r="Z29">
         <v>10</v>
       </c>
-      <c r="AA29" s="1" t="s">
+      <c r="AA29" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="A30" t="s">
         <v>64</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" t="s">
         <v>45</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" t="s">
         <v>31</v>
       </c>
       <c r="D30">
@@ -4652,18 +4666,18 @@
       <c r="Z30">
         <v>14</v>
       </c>
-      <c r="AA30" s="1" t="s">
+      <c r="AA30" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="A31" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" t="s">
         <v>31</v>
       </c>
       <c r="D31">
@@ -4735,18 +4749,18 @@
       <c r="Z31">
         <v>9</v>
       </c>
-      <c r="AA31" s="1" t="s">
+      <c r="AA31" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="A32" t="s">
         <v>66</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" t="s">
         <v>45</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" t="s">
         <v>46</v>
       </c>
       <c r="D32">
@@ -4818,18 +4832,18 @@
       <c r="Z32">
         <v>8</v>
       </c>
-      <c r="AA32" s="1" t="s">
+      <c r="AA32" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="A33" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" t="s">
         <v>46</v>
       </c>
       <c r="D33">
@@ -4901,18 +4915,18 @@
       <c r="Z33">
         <v>11</v>
       </c>
-      <c r="AA33" s="1" t="s">
+      <c r="AA33" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="A34" t="s">
         <v>70</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" t="s">
         <v>45</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" t="s">
         <v>31</v>
       </c>
       <c r="D34">
@@ -4984,18 +4998,18 @@
       <c r="Z34">
         <v>6</v>
       </c>
-      <c r="AA34" s="1" t="s">
+      <c r="AA34" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="A35" t="s">
         <v>71</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" t="s">
         <v>45</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" t="s">
         <v>46</v>
       </c>
       <c r="D35">
@@ -5067,18 +5081,18 @@
       <c r="Z35">
         <v>13</v>
       </c>
-      <c r="AA35" s="1" t="s">
+      <c r="AA35" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="A36" t="s">
         <v>72</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" t="s">
         <v>45</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" t="s">
         <v>31</v>
       </c>
       <c r="D36">
@@ -5150,18 +5164,18 @@
       <c r="Z36">
         <v>3</v>
       </c>
-      <c r="AA36" s="1" t="s">
+      <c r="AA36" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="A37" t="s">
         <v>73</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" t="s">
         <v>45</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" t="s">
         <v>31</v>
       </c>
       <c r="D37">
@@ -5233,18 +5247,18 @@
       <c r="Z37">
         <v>7</v>
       </c>
-      <c r="AA37" s="1" t="s">
+      <c r="AA37" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="A38" t="s">
         <v>74</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" t="s">
         <v>29</v>
       </c>
       <c r="D38">
@@ -5316,18 +5330,18 @@
       <c r="Z38">
         <v>9</v>
       </c>
-      <c r="AA38" s="1" t="s">
+      <c r="AA38" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="A39" t="s">
         <v>76</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" t="s">
         <v>45</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" t="s">
         <v>31</v>
       </c>
       <c r="D39">
@@ -5399,18 +5413,18 @@
       <c r="Z39">
         <v>11</v>
       </c>
-      <c r="AA39" s="1" t="s">
+      <c r="AA39" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+      <c r="A40" t="s">
         <v>78</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" t="s">
         <v>29</v>
       </c>
       <c r="D40">
@@ -5482,18 +5496,18 @@
       <c r="Z40">
         <v>10</v>
       </c>
-      <c r="AA40" s="1" t="s">
+      <c r="AA40" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="A41" t="s">
         <v>34</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" t="s">
         <v>45</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" t="s">
         <v>31</v>
       </c>
       <c r="D41">
@@ -5565,18 +5579,18 @@
       <c r="Z41">
         <v>8</v>
       </c>
-      <c r="AA41" s="1" t="s">
+      <c r="AA41" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+      <c r="A42" t="s">
         <v>79</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" t="s">
         <v>45</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" t="s">
         <v>29</v>
       </c>
       <c r="D42">
@@ -5648,18 +5662,18 @@
       <c r="Z42">
         <v>6</v>
       </c>
-      <c r="AA42" s="1" t="s">
+      <c r="AA42" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+      <c r="A43" t="s">
         <v>80</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" t="s">
         <v>45</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" t="s">
         <v>31</v>
       </c>
       <c r="D43">
@@ -5731,18 +5745,18 @@
       <c r="Z43">
         <v>11</v>
       </c>
-      <c r="AA43" s="1" t="s">
+      <c r="AA43" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+      <c r="A44" t="s">
         <v>82</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" t="s">
         <v>45</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" t="s">
         <v>29</v>
       </c>
       <c r="D44">
@@ -5814,18 +5828,18 @@
       <c r="Z44">
         <v>4</v>
       </c>
-      <c r="AA44" s="1" t="s">
+      <c r="AA44" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+      <c r="A45" t="s">
         <v>83</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" t="s">
         <v>45</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" t="s">
         <v>31</v>
       </c>
       <c r="D45">
@@ -5897,18 +5911,18 @@
       <c r="Z45">
         <v>10</v>
       </c>
-      <c r="AA45" s="1" t="s">
+      <c r="AA45" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+      <c r="A46" t="s">
         <v>84</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" t="s">
         <v>45</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" t="s">
         <v>29</v>
       </c>
       <c r="D46">
@@ -5980,18 +5994,18 @@
       <c r="Z46">
         <v>7</v>
       </c>
-      <c r="AA46" s="1" t="s">
+      <c r="AA46" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+      <c r="A47" t="s">
         <v>85</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" t="s">
         <v>45</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" t="s">
         <v>31</v>
       </c>
       <c r="D47">
@@ -6063,18 +6077,18 @@
       <c r="Z47">
         <v>7</v>
       </c>
-      <c r="AA47" s="1" t="s">
+      <c r="AA47" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+      <c r="A48" t="s">
         <v>87</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" t="s">
         <v>45</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" t="s">
         <v>31</v>
       </c>
       <c r="D48">
@@ -6146,18 +6160,18 @@
       <c r="Z48">
         <v>9</v>
       </c>
-      <c r="AA48" s="1" t="s">
+      <c r="AA48" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="49" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+      <c r="A49" t="s">
         <v>89</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" t="s">
         <v>45</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" t="s">
         <v>46</v>
       </c>
       <c r="D49">
@@ -6229,18 +6243,18 @@
       <c r="Z49">
         <v>8</v>
       </c>
-      <c r="AA49" s="1" t="s">
+      <c r="AA49" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="50" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+      <c r="A50" t="s">
         <v>90</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" t="s">
         <v>45</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" t="s">
         <v>31</v>
       </c>
       <c r="D50">
@@ -6312,18 +6326,18 @@
       <c r="Z50">
         <v>4</v>
       </c>
-      <c r="AA50" s="1" t="s">
+      <c r="AA50" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="51" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+      <c r="A51" t="s">
         <v>91</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" t="s">
         <v>45</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" t="s">
         <v>46</v>
       </c>
       <c r="D51">
@@ -6395,18 +6409,18 @@
       <c r="Z51">
         <v>6</v>
       </c>
-      <c r="AA51" s="1" t="s">
+      <c r="AA51" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="52" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+      <c r="A52" t="s">
         <v>93</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" t="s">
         <v>45</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" t="s">
         <v>46</v>
       </c>
       <c r="D52">
@@ -6478,18 +6492,18 @@
       <c r="Z52">
         <v>11</v>
       </c>
-      <c r="AA52" s="1" t="s">
+      <c r="AA52" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="53" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+      <c r="A53" t="s">
         <v>95</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" t="s">
         <v>45</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" t="s">
         <v>31</v>
       </c>
       <c r="D53">
@@ -6561,18 +6575,18 @@
       <c r="Z53">
         <v>4</v>
       </c>
-      <c r="AA53" s="1" t="s">
+      <c r="AA53" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="54" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
+      <c r="A54" t="s">
         <v>97</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" t="s">
         <v>45</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" t="s">
         <v>46</v>
       </c>
       <c r="D54">
@@ -6644,18 +6658,18 @@
       <c r="Z54">
         <v>8</v>
       </c>
-      <c r="AA54" s="1" t="s">
+      <c r="AA54" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="55" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
+      <c r="A55" t="s">
         <v>37</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" t="s">
         <v>45</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" t="s">
         <v>31</v>
       </c>
       <c r="D55">
@@ -6727,18 +6741,18 @@
       <c r="Z55">
         <v>13</v>
       </c>
-      <c r="AA55" s="1" t="s">
+      <c r="AA55" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="56" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
+      <c r="A56" t="s">
         <v>99</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" t="s">
         <v>45</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" t="s">
         <v>31</v>
       </c>
       <c r="D56">
@@ -6810,18 +6824,18 @@
       <c r="Z56">
         <v>7</v>
       </c>
-      <c r="AA56" s="1" t="s">
+      <c r="AA56" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="57" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
+      <c r="A57" t="s">
         <v>101</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" t="s">
         <v>45</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" t="s">
         <v>46</v>
       </c>
       <c r="D57">
@@ -6893,18 +6907,18 @@
       <c r="Z57">
         <v>9</v>
       </c>
-      <c r="AA57" s="1" t="s">
+      <c r="AA57" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="58" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
+      <c r="A58" t="s">
         <v>103</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" t="s">
         <v>45</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" t="s">
         <v>31</v>
       </c>
       <c r="D58">
@@ -6976,18 +6990,18 @@
       <c r="Z58">
         <v>8</v>
       </c>
-      <c r="AA58" s="1" t="s">
+      <c r="AA58" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="59" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
+      <c r="A59" t="s">
         <v>105</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" t="s">
         <v>45</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" t="s">
         <v>31</v>
       </c>
       <c r="D59">
@@ -7059,18 +7073,18 @@
       <c r="Z59">
         <v>0</v>
       </c>
-      <c r="AA59" s="1" t="s">
+      <c r="AA59" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="60" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
+      <c r="A60" t="s">
         <v>106</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" t="s">
         <v>45</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" t="s">
         <v>31</v>
       </c>
       <c r="D60">
@@ -7142,18 +7156,18 @@
       <c r="Z60">
         <v>9</v>
       </c>
-      <c r="AA60" s="1" t="s">
+      <c r="AA60" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="61" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
+      <c r="A61" t="s">
         <v>108</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" t="s">
         <v>45</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" t="s">
         <v>29</v>
       </c>
       <c r="D61">
@@ -7225,18 +7239,18 @@
       <c r="Z61">
         <v>5</v>
       </c>
-      <c r="AA61" s="1" t="s">
+      <c r="AA61" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="62" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
+      <c r="A62" t="s">
         <v>110</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" t="s">
         <v>45</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" t="s">
         <v>46</v>
       </c>
       <c r="D62">
@@ -7308,18 +7322,18 @@
       <c r="Z62">
         <v>13</v>
       </c>
-      <c r="AA62" s="1" t="s">
+      <c r="AA62" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="63" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
+      <c r="A63" t="s">
         <v>112</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" t="s">
         <v>45</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" t="s">
         <v>46</v>
       </c>
       <c r="D63">
@@ -7391,18 +7405,18 @@
       <c r="Z63">
         <v>7</v>
       </c>
-      <c r="AA63" s="1" t="s">
+      <c r="AA63" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="64" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
+      <c r="A64" t="s">
         <v>114</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" t="s">
         <v>45</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" t="s">
         <v>46</v>
       </c>
       <c r="D64">
@@ -7474,18 +7488,18 @@
       <c r="Z64">
         <v>16</v>
       </c>
-      <c r="AA64" s="1" t="s">
+      <c r="AA64" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="65" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
+      <c r="A65" t="s">
         <v>116</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" t="s">
         <v>45</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" t="s">
         <v>46</v>
       </c>
       <c r="D65">
@@ -7557,18 +7571,18 @@
       <c r="Z65">
         <v>2</v>
       </c>
-      <c r="AA65" s="1" t="s">
+      <c r="AA65" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="66" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
+      <c r="A66" t="s">
         <v>117</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" t="s">
         <v>45</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" t="s">
         <v>29</v>
       </c>
       <c r="D66">
@@ -7640,18 +7654,18 @@
       <c r="Z66">
         <v>8</v>
       </c>
-      <c r="AA66" s="1" t="s">
+      <c r="AA66" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="67" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
+      <c r="A67" t="s">
         <v>118</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" t="s">
         <v>45</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" t="s">
         <v>31</v>
       </c>
       <c r="D67">
@@ -7723,18 +7737,18 @@
       <c r="Z67">
         <v>12</v>
       </c>
-      <c r="AA67" s="1" t="s">
+      <c r="AA67" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="68" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
+      <c r="A68" t="s">
         <v>120</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" t="s">
         <v>45</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" t="s">
         <v>46</v>
       </c>
       <c r="D68">
@@ -7806,18 +7820,18 @@
       <c r="Z68">
         <v>7</v>
       </c>
-      <c r="AA68" s="1" t="s">
+      <c r="AA68" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="69" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
+      <c r="A69" t="s">
         <v>122</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" t="s">
         <v>45</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C69" t="s">
         <v>46</v>
       </c>
       <c r="D69">
@@ -7889,18 +7903,18 @@
       <c r="Z69">
         <v>12</v>
       </c>
-      <c r="AA69" s="1" t="s">
+      <c r="AA69" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="70" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
+      <c r="A70" t="s">
         <v>124</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B70" t="s">
         <v>45</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C70" t="s">
         <v>29</v>
       </c>
       <c r="D70">
@@ -7972,18 +7986,18 @@
       <c r="Z70">
         <v>11</v>
       </c>
-      <c r="AA70" s="1" t="s">
+      <c r="AA70" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="71" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
+      <c r="A71" t="s">
         <v>33</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" t="s">
         <v>45</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C71" t="s">
         <v>46</v>
       </c>
       <c r="D71">
@@ -8055,18 +8069,18 @@
       <c r="Z71">
         <v>13</v>
       </c>
-      <c r="AA71" s="1" t="s">
+      <c r="AA71" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="72" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
+      <c r="A72" t="s">
         <v>125</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" t="s">
         <v>45</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C72" t="s">
         <v>31</v>
       </c>
       <c r="D72">
@@ -8138,18 +8152,18 @@
       <c r="Z72">
         <v>4</v>
       </c>
-      <c r="AA72" s="1" t="s">
+      <c r="AA72" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="73" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
+      <c r="A73" t="s">
         <v>126</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B73" t="s">
         <v>45</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C73" t="s">
         <v>29</v>
       </c>
       <c r="D73">
@@ -8221,18 +8235,18 @@
       <c r="Z73">
         <v>13</v>
       </c>
-      <c r="AA73" s="1" t="s">
+      <c r="AA73" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="74" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
+      <c r="A74" t="s">
         <v>39</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B74" t="s">
         <v>45</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C74" t="s">
         <v>31</v>
       </c>
       <c r="D74">
@@ -8304,18 +8318,18 @@
       <c r="Z74">
         <v>9</v>
       </c>
-      <c r="AA74" s="1" t="s">
+      <c r="AA74" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="75" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
+      <c r="A75" t="s">
         <v>128</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B75" t="s">
         <v>45</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C75" t="s">
         <v>29</v>
       </c>
       <c r="D75">
@@ -8387,18 +8401,18 @@
       <c r="Z75">
         <v>6</v>
       </c>
-      <c r="AA75" s="1" t="s">
+      <c r="AA75" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="76" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
+      <c r="A76" t="s">
         <v>40</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B76" t="s">
         <v>45</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C76" t="s">
         <v>46</v>
       </c>
       <c r="D76">
@@ -8470,18 +8484,18 @@
       <c r="Z76">
         <v>7</v>
       </c>
-      <c r="AA76" s="1" t="s">
+      <c r="AA76" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="77" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
+      <c r="A77" t="s">
         <v>129</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B77" t="s">
         <v>45</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C77" t="s">
         <v>31</v>
       </c>
       <c r="D77">
@@ -8553,18 +8567,18 @@
       <c r="Z77">
         <v>11</v>
       </c>
-      <c r="AA77" s="1" t="s">
+      <c r="AA77" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="78" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
+      <c r="A78" t="s">
         <v>131</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B78" t="s">
         <v>45</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C78" t="s">
         <v>29</v>
       </c>
       <c r="D78">
@@ -8636,18 +8650,18 @@
       <c r="Z78">
         <v>4</v>
       </c>
-      <c r="AA78" s="1" t="s">
+      <c r="AA78" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="79" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
+      <c r="A79" t="s">
         <v>132</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B79" t="s">
         <v>45</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C79" t="s">
         <v>46</v>
       </c>
       <c r="D79">
@@ -8719,18 +8733,18 @@
       <c r="Z79">
         <v>12</v>
       </c>
-      <c r="AA79" s="1" t="s">
+      <c r="AA79" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="80" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
+      <c r="A80" t="s">
         <v>133</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B80" t="s">
         <v>45</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C80" t="s">
         <v>29</v>
       </c>
       <c r="D80">
@@ -8802,18 +8816,18 @@
       <c r="Z80">
         <v>7</v>
       </c>
-      <c r="AA80" s="1" t="s">
+      <c r="AA80" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="81" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
+      <c r="A81" t="s">
         <v>134</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B81" t="s">
         <v>45</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C81" t="s">
         <v>29</v>
       </c>
       <c r="D81">
@@ -8885,18 +8899,18 @@
       <c r="Z81">
         <v>8</v>
       </c>
-      <c r="AA81" s="1" t="s">
+      <c r="AA81" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="82" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
+      <c r="A82" t="s">
         <v>136</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B82" t="s">
         <v>45</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C82" t="s">
         <v>31</v>
       </c>
       <c r="D82">
@@ -8968,18 +8982,18 @@
       <c r="Z82">
         <v>11</v>
       </c>
-      <c r="AA82" s="1" t="s">
+      <c r="AA82" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="83" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
+      <c r="A83" t="s">
         <v>138</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B83" t="s">
         <v>45</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C83" t="s">
         <v>29</v>
       </c>
       <c r="D83">
@@ -9051,18 +9065,18 @@
       <c r="Z83">
         <v>8</v>
       </c>
-      <c r="AA83" s="1" t="s">
+      <c r="AA83" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="84" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
+      <c r="A84" t="s">
         <v>139</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B84" t="s">
         <v>45</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C84" t="s">
         <v>31</v>
       </c>
       <c r="D84">
@@ -9134,18 +9148,18 @@
       <c r="Z84">
         <v>9</v>
       </c>
-      <c r="AA84" s="1" t="s">
+      <c r="AA84" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="85" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
+      <c r="A85" t="s">
         <v>140</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B85" t="s">
         <v>45</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C85" t="s">
         <v>46</v>
       </c>
       <c r="D85">
@@ -9217,18 +9231,18 @@
       <c r="Z85">
         <v>11</v>
       </c>
-      <c r="AA85" s="1" t="s">
+      <c r="AA85" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="86" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
+      <c r="A86" t="s">
         <v>141</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B86" t="s">
         <v>45</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C86" t="s">
         <v>46</v>
       </c>
       <c r="D86">
@@ -9300,18 +9314,18 @@
       <c r="Z86">
         <v>11</v>
       </c>
-      <c r="AA86" s="1" t="s">
+      <c r="AA86" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="87" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
+      <c r="A87" t="s">
         <v>41</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B87" t="s">
         <v>45</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C87" t="s">
         <v>46</v>
       </c>
       <c r="D87">
@@ -9383,18 +9397,18 @@
       <c r="Z87">
         <v>4</v>
       </c>
-      <c r="AA87" s="1" t="s">
+      <c r="AA87" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="88" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
+      <c r="A88" t="s">
         <v>143</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B88" t="s">
         <v>45</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C88" t="s">
         <v>29</v>
       </c>
       <c r="D88">
@@ -9466,18 +9480,18 @@
       <c r="Z88">
         <v>6</v>
       </c>
-      <c r="AA88" s="1" t="s">
+      <c r="AA88" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="89" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
+      <c r="A89" t="s">
         <v>144</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B89" t="s">
         <v>45</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C89" t="s">
         <v>29</v>
       </c>
       <c r="D89">
@@ -9549,18 +9563,18 @@
       <c r="Z89">
         <v>4</v>
       </c>
-      <c r="AA89" s="1" t="s">
+      <c r="AA89" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="90" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
+      <c r="A90" t="s">
         <v>145</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B90" t="s">
         <v>45</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="C90" t="s">
         <v>31</v>
       </c>
       <c r="D90">
@@ -9632,18 +9646,18 @@
       <c r="Z90">
         <v>11</v>
       </c>
-      <c r="AA90" s="1" t="s">
+      <c r="AA90" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="91" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
+      <c r="A91" t="s">
         <v>147</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B91" t="s">
         <v>45</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C91" t="s">
         <v>31</v>
       </c>
       <c r="D91">
@@ -9715,18 +9729,18 @@
       <c r="Z91">
         <v>8</v>
       </c>
-      <c r="AA91" s="1" t="s">
+      <c r="AA91" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="92" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
+      <c r="A92" t="s">
         <v>148</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B92" t="s">
         <v>45</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C92" t="s">
         <v>31</v>
       </c>
       <c r="D92">
@@ -9798,18 +9812,18 @@
       <c r="Z92">
         <v>9</v>
       </c>
-      <c r="AA92" s="1" t="s">
+      <c r="AA92" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="93" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
+      <c r="A93" t="s">
         <v>149</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B93" t="s">
         <v>45</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C93" t="s">
         <v>46</v>
       </c>
       <c r="D93">
@@ -9881,18 +9895,18 @@
       <c r="Z93">
         <v>10</v>
       </c>
-      <c r="AA93" s="1" t="s">
+      <c r="AA93" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="94" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
+      <c r="A94" t="s">
         <v>151</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B94" t="s">
         <v>45</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C94" t="s">
         <v>46</v>
       </c>
       <c r="D94">
@@ -9964,18 +9978,18 @@
       <c r="Z94">
         <v>5</v>
       </c>
-      <c r="AA94" s="1" t="s">
+      <c r="AA94" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="95" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
+      <c r="A95" t="s">
         <v>153</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B95" t="s">
         <v>45</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C95" t="s">
         <v>31</v>
       </c>
       <c r="D95">
@@ -10047,18 +10061,18 @@
       <c r="Z95">
         <v>11</v>
       </c>
-      <c r="AA95" s="1" t="s">
+      <c r="AA95" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="96" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
+      <c r="A96" t="s">
         <v>155</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B96" t="s">
         <v>45</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="C96" t="s">
         <v>46</v>
       </c>
       <c r="D96">
@@ -10130,18 +10144,18 @@
       <c r="Z96">
         <v>3</v>
       </c>
-      <c r="AA96" s="1" t="s">
+      <c r="AA96" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="97" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
+      <c r="A97" t="s">
         <v>156</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B97" t="s">
         <v>45</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="C97" t="s">
         <v>46</v>
       </c>
       <c r="D97">
@@ -10213,18 +10227,18 @@
       <c r="Z97">
         <v>4</v>
       </c>
-      <c r="AA97" s="1" t="s">
+      <c r="AA97" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="98" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
+      <c r="A98" t="s">
         <v>158</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B98" t="s">
         <v>45</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C98" t="s">
         <v>31</v>
       </c>
       <c r="D98">
@@ -10296,18 +10310,18 @@
       <c r="Z98">
         <v>10</v>
       </c>
-      <c r="AA98" s="1" t="s">
+      <c r="AA98" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="99" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
+      <c r="A99" t="s">
         <v>160</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B99" t="s">
         <v>45</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C99" t="s">
         <v>46</v>
       </c>
       <c r="D99">
@@ -10379,18 +10393,18 @@
       <c r="Z99">
         <v>9</v>
       </c>
-      <c r="AA99" s="1" t="s">
+      <c r="AA99" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="100" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
+      <c r="A100" t="s">
         <v>162</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B100" t="s">
         <v>45</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="C100" t="s">
         <v>29</v>
       </c>
       <c r="D100">
@@ -10462,18 +10476,18 @@
       <c r="Z100">
         <v>7</v>
       </c>
-      <c r="AA100" s="1" t="s">
+      <c r="AA100" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="101" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
+      <c r="A101" t="s">
         <v>164</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B101" t="s">
         <v>45</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C101" t="s">
         <v>29</v>
       </c>
       <c r="D101">
@@ -10545,18 +10559,18 @@
       <c r="Z101">
         <v>15</v>
       </c>
-      <c r="AA101" s="1" t="s">
+      <c r="AA101" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="102" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
+      <c r="A102" t="s">
         <v>166</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B102" t="s">
         <v>45</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="C102" t="s">
         <v>31</v>
       </c>
       <c r="D102">
@@ -10628,18 +10642,18 @@
       <c r="Z102">
         <v>7</v>
       </c>
-      <c r="AA102" s="1" t="s">
+      <c r="AA102" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="103" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
+      <c r="A103" t="s">
         <v>167</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B103" t="s">
         <v>45</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="C103" t="s">
         <v>46</v>
       </c>
       <c r="D103">
@@ -10711,18 +10725,18 @@
       <c r="Z103">
         <v>6</v>
       </c>
-      <c r="AA103" s="1" t="s">
+      <c r="AA103" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="104" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
+      <c r="A104" t="s">
         <v>168</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="B104" t="s">
         <v>45</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="C104" t="s">
         <v>29</v>
       </c>
       <c r="D104">
@@ -10794,18 +10808,18 @@
       <c r="Z104">
         <v>4</v>
       </c>
-      <c r="AA104" s="1" t="s">
+      <c r="AA104" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="105" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
+      <c r="A105" t="s">
         <v>170</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="B105" t="s">
         <v>45</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="C105" t="s">
         <v>31</v>
       </c>
       <c r="D105">
@@ -10877,18 +10891,18 @@
       <c r="Z105">
         <v>0</v>
       </c>
-      <c r="AA105" s="1" t="s">
+      <c r="AA105" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="106" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
+      <c r="A106" t="s">
         <v>171</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="B106" t="s">
         <v>45</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="C106" t="s">
         <v>46</v>
       </c>
       <c r="D106">
@@ -10960,18 +10974,18 @@
       <c r="Z106">
         <v>13</v>
       </c>
-      <c r="AA106" s="1" t="s">
+      <c r="AA106" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="107" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
+      <c r="A107" t="s">
         <v>173</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="B107" t="s">
         <v>45</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="C107" t="s">
         <v>31</v>
       </c>
       <c r="D107">
@@ -11043,18 +11057,18 @@
       <c r="Z107">
         <v>8</v>
       </c>
-      <c r="AA107" s="1" t="s">
+      <c r="AA107" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="108" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
+      <c r="A108" t="s">
         <v>174</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="B108" t="s">
         <v>45</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="C108" t="s">
         <v>46</v>
       </c>
       <c r="D108">
@@ -11126,18 +11140,18 @@
       <c r="Z108">
         <v>9</v>
       </c>
-      <c r="AA108" s="1" t="s">
+      <c r="AA108" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="109" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
+      <c r="A109" t="s">
         <v>176</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B109" t="s">
         <v>45</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="C109" t="s">
         <v>31</v>
       </c>
       <c r="D109">
@@ -11209,18 +11223,18 @@
       <c r="Z109">
         <v>5</v>
       </c>
-      <c r="AA109" s="1" t="s">
+      <c r="AA109" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="110" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
+      <c r="A110" t="s">
         <v>177</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="B110" t="s">
         <v>45</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="C110" t="s">
         <v>31</v>
       </c>
       <c r="D110">
@@ -11292,18 +11306,18 @@
       <c r="Z110">
         <v>4</v>
       </c>
-      <c r="AA110" s="1" t="s">
+      <c r="AA110" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="111" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A111" s="1" t="s">
+      <c r="A111" t="s">
         <v>178</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="B111" t="s">
         <v>45</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="C111" t="s">
         <v>29</v>
       </c>
       <c r="D111">
@@ -11375,18 +11389,18 @@
       <c r="Z111">
         <v>10</v>
       </c>
-      <c r="AA111" s="1" t="s">
+      <c r="AA111" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="112" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
+      <c r="A112" t="s">
         <v>179</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="B112" t="s">
         <v>45</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="C112" t="s">
         <v>31</v>
       </c>
       <c r="D112">
@@ -11458,18 +11472,18 @@
       <c r="Z112">
         <v>9</v>
       </c>
-      <c r="AA112" s="1" t="s">
+      <c r="AA112" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="113" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
+      <c r="A113" t="s">
         <v>181</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="B113" t="s">
         <v>45</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="C113" t="s">
         <v>29</v>
       </c>
       <c r="D113">
@@ -11541,18 +11555,18 @@
       <c r="Z113">
         <v>9</v>
       </c>
-      <c r="AA113" s="1" t="s">
+      <c r="AA113" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="114" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
+      <c r="A114" t="s">
         <v>182</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="B114" t="s">
         <v>45</v>
       </c>
-      <c r="C114" s="1" t="s">
+      <c r="C114" t="s">
         <v>31</v>
       </c>
       <c r="D114">
@@ -11624,18 +11638,18 @@
       <c r="Z114">
         <v>9</v>
       </c>
-      <c r="AA114" s="1" t="s">
+      <c r="AA114" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="115" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A115" s="1" t="s">
+      <c r="A115" t="s">
         <v>183</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="B115" t="s">
         <v>45</v>
       </c>
-      <c r="C115" s="1" t="s">
+      <c r="C115" t="s">
         <v>46</v>
       </c>
       <c r="D115">
@@ -11707,18 +11721,18 @@
       <c r="Z115">
         <v>7</v>
       </c>
-      <c r="AA115" s="1" t="s">
+      <c r="AA115" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="116" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="s">
+      <c r="A116" t="s">
         <v>185</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="B116" t="s">
         <v>45</v>
       </c>
-      <c r="C116" s="1" t="s">
+      <c r="C116" t="s">
         <v>29</v>
       </c>
       <c r="D116">
@@ -11790,18 +11804,18 @@
       <c r="Z116">
         <v>11</v>
       </c>
-      <c r="AA116" s="1" t="s">
+      <c r="AA116" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="117" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
+      <c r="A117" t="s">
         <v>186</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="B117" t="s">
         <v>45</v>
       </c>
-      <c r="C117" s="1" t="s">
+      <c r="C117" t="s">
         <v>29</v>
       </c>
       <c r="D117">
@@ -11873,18 +11887,18 @@
       <c r="Z117">
         <v>10</v>
       </c>
-      <c r="AA117" s="1" t="s">
+      <c r="AA117" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="118" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="s">
+      <c r="A118" t="s">
         <v>187</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="B118" t="s">
         <v>45</v>
       </c>
-      <c r="C118" s="1" t="s">
+      <c r="C118" t="s">
         <v>31</v>
       </c>
       <c r="D118">
@@ -11956,18 +11970,18 @@
       <c r="Z118">
         <v>11</v>
       </c>
-      <c r="AA118" s="1" t="s">
+      <c r="AA118" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="119" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A119" s="1" t="s">
+      <c r="A119" t="s">
         <v>189</v>
       </c>
-      <c r="B119" s="1" t="s">
+      <c r="B119" t="s">
         <v>45</v>
       </c>
-      <c r="C119" s="1" t="s">
+      <c r="C119" t="s">
         <v>31</v>
       </c>
       <c r="D119">
@@ -12039,18 +12053,18 @@
       <c r="Z119">
         <v>8</v>
       </c>
-      <c r="AA119" s="1" t="s">
+      <c r="AA119" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="120" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A120" s="1" t="s">
+      <c r="A120" t="s">
         <v>190</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="B120" t="s">
         <v>45</v>
       </c>
-      <c r="C120" s="1" t="s">
+      <c r="C120" t="s">
         <v>46</v>
       </c>
       <c r="D120">
@@ -12122,18 +12136,18 @@
       <c r="Z120">
         <v>12</v>
       </c>
-      <c r="AA120" s="1" t="s">
+      <c r="AA120" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="121" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
+      <c r="A121" t="s">
         <v>192</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="B121" t="s">
         <v>45</v>
       </c>
-      <c r="C121" s="1" t="s">
+      <c r="C121" t="s">
         <v>31</v>
       </c>
       <c r="D121">
@@ -12205,18 +12219,18 @@
       <c r="Z121">
         <v>13</v>
       </c>
-      <c r="AA121" s="1" t="s">
+      <c r="AA121" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="122" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
+      <c r="A122" t="s">
         <v>194</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="B122" t="s">
         <v>45</v>
       </c>
-      <c r="C122" s="1" t="s">
+      <c r="C122" t="s">
         <v>31</v>
       </c>
       <c r="D122">
@@ -12288,18 +12302,18 @@
       <c r="Z122">
         <v>15</v>
       </c>
-      <c r="AA122" s="1" t="s">
+      <c r="AA122" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="123" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="s">
+      <c r="A123" t="s">
         <v>196</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="B123" t="s">
         <v>45</v>
       </c>
-      <c r="C123" s="1" t="s">
+      <c r="C123" t="s">
         <v>31</v>
       </c>
       <c r="D123">
@@ -12371,18 +12385,18 @@
       <c r="Z123">
         <v>6</v>
       </c>
-      <c r="AA123" s="1" t="s">
+      <c r="AA123" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="124" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
+      <c r="A124" t="s">
         <v>197</v>
       </c>
-      <c r="B124" s="1" t="s">
+      <c r="B124" t="s">
         <v>45</v>
       </c>
-      <c r="C124" s="1" t="s">
+      <c r="C124" t="s">
         <v>31</v>
       </c>
       <c r="D124">
@@ -12454,18 +12468,18 @@
       <c r="Z124">
         <v>7</v>
       </c>
-      <c r="AA124" s="1" t="s">
+      <c r="AA124" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="125" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="s">
+      <c r="A125" t="s">
         <v>198</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="B125" t="s">
         <v>45</v>
       </c>
-      <c r="C125" s="1" t="s">
+      <c r="C125" t="s">
         <v>46</v>
       </c>
       <c r="D125">
@@ -12537,18 +12551,18 @@
       <c r="Z125">
         <v>8</v>
       </c>
-      <c r="AA125" s="1" t="s">
+      <c r="AA125" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="126" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
+      <c r="A126" t="s">
         <v>200</v>
       </c>
-      <c r="B126" s="1" t="s">
+      <c r="B126" t="s">
         <v>45</v>
       </c>
-      <c r="C126" s="1" t="s">
+      <c r="C126" t="s">
         <v>29</v>
       </c>
       <c r="D126">
@@ -12620,18 +12634,18 @@
       <c r="Z126">
         <v>5</v>
       </c>
-      <c r="AA126" s="1" t="s">
+      <c r="AA126" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="127" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
+      <c r="A127" t="s">
         <v>201</v>
       </c>
-      <c r="B127" s="1" t="s">
+      <c r="B127" t="s">
         <v>45</v>
       </c>
-      <c r="C127" s="1" t="s">
+      <c r="C127" t="s">
         <v>29</v>
       </c>
       <c r="D127">
@@ -12703,18 +12717,18 @@
       <c r="Z127">
         <v>10</v>
       </c>
-      <c r="AA127" s="1" t="s">
+      <c r="AA127" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="128" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
+      <c r="A128" t="s">
         <v>202</v>
       </c>
-      <c r="B128" s="1" t="s">
+      <c r="B128" t="s">
         <v>45</v>
       </c>
-      <c r="C128" s="1" t="s">
+      <c r="C128" t="s">
         <v>46</v>
       </c>
       <c r="D128">
@@ -12786,18 +12800,18 @@
       <c r="Z128">
         <v>9</v>
       </c>
-      <c r="AA128" s="1" t="s">
+      <c r="AA128" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="129" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
+      <c r="A129" t="s">
         <v>204</v>
       </c>
-      <c r="B129" s="1" t="s">
+      <c r="B129" t="s">
         <v>45</v>
       </c>
-      <c r="C129" s="1" t="s">
+      <c r="C129" t="s">
         <v>31</v>
       </c>
       <c r="D129">
@@ -12869,18 +12883,18 @@
       <c r="Z129">
         <v>9</v>
       </c>
-      <c r="AA129" s="1" t="s">
+      <c r="AA129" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="130" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="s">
+      <c r="A130" t="s">
         <v>206</v>
       </c>
-      <c r="B130" s="1" t="s">
+      <c r="B130" t="s">
         <v>45</v>
       </c>
-      <c r="C130" s="1" t="s">
+      <c r="C130" t="s">
         <v>31</v>
       </c>
       <c r="D130">
@@ -12952,18 +12966,18 @@
       <c r="Z130">
         <v>2</v>
       </c>
-      <c r="AA130" s="1" t="s">
+      <c r="AA130" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="131" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
+      <c r="A131" t="s">
         <v>43</v>
       </c>
-      <c r="B131" s="1" t="s">
+      <c r="B131" t="s">
         <v>45</v>
       </c>
-      <c r="C131" s="1" t="s">
+      <c r="C131" t="s">
         <v>31</v>
       </c>
       <c r="D131">
@@ -13035,18 +13049,18 @@
       <c r="Z131">
         <v>8</v>
       </c>
-      <c r="AA131" s="1" t="s">
+      <c r="AA131" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="132" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A132" s="1" t="s">
+      <c r="A132" t="s">
         <v>207</v>
       </c>
-      <c r="B132" s="1" t="s">
+      <c r="B132" t="s">
         <v>45</v>
       </c>
-      <c r="C132" s="1" t="s">
+      <c r="C132" t="s">
         <v>29</v>
       </c>
       <c r="D132">
@@ -13118,18 +13132,18 @@
       <c r="Z132">
         <v>6</v>
       </c>
-      <c r="AA132" s="1" t="s">
+      <c r="AA132" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="133" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
+      <c r="A133" t="s">
         <v>208</v>
       </c>
-      <c r="B133" s="1" t="s">
+      <c r="B133" t="s">
         <v>45</v>
       </c>
-      <c r="C133" s="1" t="s">
+      <c r="C133" t="s">
         <v>29</v>
       </c>
       <c r="D133">
@@ -13201,18 +13215,18 @@
       <c r="Z133">
         <v>13</v>
       </c>
-      <c r="AA133" s="1" t="s">
+      <c r="AA133" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="134" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A134" s="1" t="s">
+      <c r="A134" t="s">
         <v>209</v>
       </c>
-      <c r="B134" s="1" t="s">
+      <c r="B134" t="s">
         <v>45</v>
       </c>
-      <c r="C134" s="1" t="s">
+      <c r="C134" t="s">
         <v>31</v>
       </c>
       <c r="D134">
@@ -13284,18 +13298,18 @@
       <c r="Z134">
         <v>7</v>
       </c>
-      <c r="AA134" s="1" t="s">
+      <c r="AA134" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="135" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A135" s="1" t="s">
+      <c r="A135" t="s">
         <v>210</v>
       </c>
-      <c r="B135" s="1" t="s">
+      <c r="B135" t="s">
         <v>45</v>
       </c>
-      <c r="C135" s="1" t="s">
+      <c r="C135" t="s">
         <v>31</v>
       </c>
       <c r="D135">
@@ -13367,18 +13381,18 @@
       <c r="Z135">
         <v>9</v>
       </c>
-      <c r="AA135" s="1" t="s">
+      <c r="AA135" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="136" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A136" s="1" t="s">
+      <c r="A136" t="s">
         <v>212</v>
       </c>
-      <c r="B136" s="1" t="s">
+      <c r="B136" t="s">
         <v>45</v>
       </c>
-      <c r="C136" s="1" t="s">
+      <c r="C136" t="s">
         <v>29</v>
       </c>
       <c r="D136">
@@ -13450,18 +13464,18 @@
       <c r="Z136">
         <v>9</v>
       </c>
-      <c r="AA136" s="1" t="s">
+      <c r="AA136" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="137" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A137" s="1" t="s">
+      <c r="A137" t="s">
         <v>214</v>
       </c>
-      <c r="B137" s="1" t="s">
+      <c r="B137" t="s">
         <v>45</v>
       </c>
-      <c r="C137" s="1" t="s">
+      <c r="C137" t="s">
         <v>31</v>
       </c>
       <c r="D137">
@@ -13533,18 +13547,18 @@
       <c r="Z137">
         <v>3</v>
       </c>
-      <c r="AA137" s="1" t="s">
+      <c r="AA137" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="138" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A138" s="1" t="s">
+      <c r="A138" t="s">
         <v>215</v>
       </c>
-      <c r="B138" s="1" t="s">
+      <c r="B138" t="s">
         <v>45</v>
       </c>
-      <c r="C138" s="1" t="s">
+      <c r="C138" t="s">
         <v>31</v>
       </c>
       <c r="D138">
@@ -13616,25 +13630,23 @@
       <c r="Z138">
         <v>4</v>
       </c>
-      <c r="AA138" s="1" t="s">
+      <c r="AA138" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="139" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A139" s="1"/>
       <c r="C139" t="s">
         <v>217</v>
       </c>
       <c r="D139" t="s">
         <v>216</v>
       </c>
-      <c r="AA139" s="1"/>
     </row>
     <row r="140" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B140" s="1" t="s">
+      <c r="B140" t="s">
         <v>29</v>
       </c>
-      <c r="C140" s="1">
+      <c r="C140">
         <f>COUNTIF(C2:C138,"WIN")</f>
         <v>37</v>
       </c>
@@ -13664,7 +13676,7 @@
   </sheetData>
   <dataConsolidate/>
   <conditionalFormatting sqref="D6:Z14">
-    <cfRule type="colorScale" priority="8">
+    <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -13676,6 +13688,54 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:Z1048576 D1:Z5">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V1:V1048576">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X1:X1048576">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y1:Y1048576">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z1:Z1048576">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -13687,7 +13747,31 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V1:V1048576">
+  <conditionalFormatting sqref="W1:W1048576">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T1:T1048576">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N1:N1048576">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -13699,7 +13783,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X1:X1048576">
+  <conditionalFormatting sqref="L1:L1048576">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -13711,19 +13795,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y1:Y1048576">
+  <conditionalFormatting sqref="D1:D1048576">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z1:Z1048576">
+  <conditionalFormatting sqref="G1:G1048576">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/charts.xlsx
+++ b/charts.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projet\Projet_CESI\2025-2026\IR\Projets\Mario-AI-Framework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C2524CC-AC60-4DB2-A5B6-7F2BBFF9CD6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD98DBD-B82B-4309-8812-259FD7E68840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="log (2)" sheetId="1" r:id="rId1"/>
-    <sheet name="Feuil1" sheetId="3" r:id="rId2"/>
+    <sheet name="Generated" sheetId="1" r:id="rId1"/>
+    <sheet name="generatedEch" sheetId="3" r:id="rId2"/>
     <sheet name="log (3)" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="DonnéesExternes_1" localSheetId="0" hidden="1">'log (2)'!#REF!</definedName>
+    <definedName name="DonnéesExternes_1" localSheetId="0" hidden="1">Generated!#REF!</definedName>
     <definedName name="DonnéesExternes_1" localSheetId="2" hidden="1">'log (3)'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1920" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1926" uniqueCount="343">
   <si>
     <t>LevelPath</t>
   </si>
@@ -1428,7 +1428,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'log (2)'!$B$256:$B$258</c:f>
+              <c:f>Generated!$B$256:$B$258</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1445,7 +1445,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'log (2)'!$C$256:$C$258</c:f>
+              <c:f>Generated!$C$256:$C$258</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1615,7 +1615,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'log (2)'!$B$256:$B$258</c:f>
+              <c:f>Generated!$B$256:$B$258</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1632,7 +1632,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'log (2)'!$C$256:$C$258</c:f>
+              <c:f>Generated!$C$256:$C$258</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1985,7 +1985,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'log (2)'!$B$262:$B$264</c:f>
+              <c:f>Generated!$B$262:$B$264</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2002,7 +2002,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'log (2)'!$C$262:$C$264</c:f>
+              <c:f>Generated!$C$262:$C$264</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2360,7 +2360,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'log (2)'!$B$256:$B$258</c:f>
+              <c:f>Generated!$B$256:$B$258</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2377,7 +2377,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'log (2)'!$C$256:$C$258</c:f>
+              <c:f>Generated!$C$256:$C$258</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2547,7 +2547,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'log (2)'!$B$256:$B$258</c:f>
+              <c:f>Generated!$B$256:$B$258</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2564,7 +2564,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'log (2)'!$C$256:$C$258</c:f>
+              <c:f>Generated!$C$256:$C$258</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2917,7 +2917,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'log (2)'!$B$262:$B$264</c:f>
+              <c:f>Generated!$B$262:$B$264</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2934,7 +2934,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'log (2)'!$C$262:$C$264</c:f>
+              <c:f>Generated!$C$262:$C$264</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -8122,10 +8122,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2598870A-4957-49A8-9407-B48E29DBA94C}" name="log_3" displayName="log_3" ref="A1:O17" totalsRowShown="0">
-  <autoFilter ref="A1:O17" xr:uid="{2598870A-4957-49A8-9407-B48E29DBA94C}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O17">
-    <sortCondition descending="1" ref="B1:B17"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2598870A-4957-49A8-9407-B48E29DBA94C}" name="log_3" displayName="log_3" ref="A1:O19" totalsRowShown="0">
+  <autoFilter ref="A1:O19" xr:uid="{2598870A-4957-49A8-9407-B48E29DBA94C}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O19">
+    <sortCondition ref="B1:B19"/>
   </sortState>
   <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{F8FA52C7-0BC3-4ABC-848E-179E64C0C5F3}" name="LevelPath"/>
@@ -8355,8 +8355,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA265"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77:XFD77"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H143" sqref="A143:XFD143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19881,7 +19881,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>235</v>
       </c>
@@ -29318,8 +29318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECD19E77-9812-437A-83B1-09A57173861D}">
   <dimension ref="A1:O44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29390,10 +29390,10 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
         <v>29</v>
@@ -29402,31 +29402,31 @@
         <v>100</v>
       </c>
       <c r="E2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F2">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="G2">
-        <v>218.18</v>
+        <v>218.75</v>
       </c>
       <c r="H2">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>-96</v>
+        <v>-43</v>
       </c>
       <c r="K2">
-        <v>3.7908059999999999</v>
+        <v>0.97326000000000001</v>
       </c>
       <c r="L2">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="M2">
-        <v>88</v>
+        <v>37</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -29437,10 +29437,10 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>127</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
         <v>29</v>
@@ -29449,81 +29449,81 @@
         <v>100</v>
       </c>
       <c r="E3">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F3">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="G3">
-        <v>141.82</v>
+        <v>410.82</v>
       </c>
       <c r="H3">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I3">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>-71</v>
+        <v>-121</v>
       </c>
       <c r="K3">
-        <v>2.1273819999999999</v>
+        <v>4.2734269999999999</v>
       </c>
       <c r="L3">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="M3">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="D4">
-        <v>100</v>
+        <v>37.89</v>
       </c>
       <c r="E4">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="G4">
-        <v>152.72999999999999</v>
+        <v>131.41</v>
       </c>
       <c r="H4">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.59</v>
       </c>
       <c r="J4">
-        <v>-43</v>
+        <v>-41</v>
       </c>
       <c r="K4">
-        <v>0.97326000000000001</v>
+        <v>0.91326200000000002</v>
       </c>
       <c r="L4">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="M4">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O4">
         <v>8</v>
@@ -29531,49 +29531,49 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>290</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="D5">
-        <v>100</v>
+        <v>29.12</v>
       </c>
       <c r="E5">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="G5">
-        <v>207.27</v>
+        <v>129.63999999999999</v>
       </c>
       <c r="H5">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I5">
-        <v>0.18</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>-67</v>
+        <v>-86</v>
       </c>
       <c r="K5">
-        <v>2.7204290000000002</v>
+        <v>3.7367970000000001</v>
       </c>
       <c r="L5">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="M5">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -29581,25 +29581,25 @@
         <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
         <v>31</v>
       </c>
       <c r="D6">
-        <v>93.4</v>
+        <v>77.489999999999995</v>
       </c>
       <c r="E6">
         <v>14</v>
       </c>
       <c r="F6">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G6">
-        <v>163.58000000000001</v>
+        <v>129.63999999999999</v>
       </c>
       <c r="H6">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6">
         <v>0.99</v>
@@ -29625,46 +29625,46 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
         <v>31</v>
       </c>
       <c r="D7">
-        <v>68.599999999999994</v>
+        <v>34.58</v>
       </c>
       <c r="E7">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G7">
-        <v>124.07</v>
+        <v>129.63999999999999</v>
       </c>
       <c r="H7">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I7">
-        <v>0.59</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>-41</v>
+        <v>-96</v>
       </c>
       <c r="K7">
-        <v>0.91326200000000002</v>
+        <v>3.7908059999999999</v>
       </c>
       <c r="L7">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="M7">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="N7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>8</v>
@@ -29672,137 +29672,137 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
         <v>31</v>
       </c>
       <c r="D8">
-        <v>66.19</v>
+        <v>34.18</v>
       </c>
       <c r="E8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G8">
-        <v>119.71</v>
+        <v>129.63999999999999</v>
       </c>
       <c r="H8">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0.18</v>
       </c>
       <c r="J8">
-        <v>-86</v>
+        <v>-67</v>
       </c>
       <c r="K8">
-        <v>3.7367970000000001</v>
+        <v>2.7204290000000002</v>
       </c>
       <c r="L8">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="M8">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
         <v>31</v>
       </c>
       <c r="D9">
-        <v>65.28</v>
+        <v>32.94</v>
       </c>
       <c r="E9">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F9">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G9">
-        <v>239.88</v>
+        <v>129.63999999999999</v>
       </c>
       <c r="H9">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="J9">
-        <v>-163</v>
+        <v>-71</v>
       </c>
       <c r="K9">
-        <v>9.2431970000000003</v>
+        <v>2.1273819999999999</v>
       </c>
       <c r="L9">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="M9">
-        <v>176</v>
+        <v>52</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
         <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D10">
-        <v>100</v>
+        <v>16.89</v>
       </c>
       <c r="E10">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F10">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="G10">
-        <v>218.75</v>
+        <v>129.63999999999999</v>
       </c>
       <c r="H10">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>-43</v>
+        <v>-163</v>
       </c>
       <c r="K10">
-        <v>0.97326000000000001</v>
+        <v>9.2431970000000003</v>
       </c>
       <c r="L10">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="M10">
-        <v>37</v>
+        <v>176</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -29813,46 +29813,46 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="D11">
-        <v>37.89</v>
+        <v>100</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F11">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="G11">
-        <v>131.41</v>
+        <v>218.18</v>
       </c>
       <c r="H11">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I11">
-        <v>0.59</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>-41</v>
+        <v>-96</v>
       </c>
       <c r="K11">
-        <v>0.91326200000000002</v>
+        <v>3.7908059999999999</v>
       </c>
       <c r="L11">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="M11">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="N11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>8</v>
@@ -29860,137 +29860,137 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="D12">
-        <v>29.12</v>
+        <v>100</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F12">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="G12">
-        <v>129.63999999999999</v>
+        <v>141.82</v>
       </c>
       <c r="H12">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="J12">
-        <v>-86</v>
+        <v>-71</v>
       </c>
       <c r="K12">
-        <v>3.7367970000000001</v>
+        <v>2.1273819999999999</v>
       </c>
       <c r="L12">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="M12">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D13">
-        <v>77.489999999999995</v>
+        <v>100</v>
       </c>
       <c r="E13">
         <v>14</v>
       </c>
       <c r="F13">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="G13">
-        <v>129.63999999999999</v>
+        <v>152.72999999999999</v>
       </c>
       <c r="H13">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I13">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="J13">
-        <v>-59</v>
+        <v>-43</v>
       </c>
       <c r="K13">
-        <v>1.7955559999999999</v>
+        <v>0.97326000000000001</v>
       </c>
       <c r="L13">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M13">
         <v>37</v>
       </c>
       <c r="N13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>290</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D14">
-        <v>34.58</v>
+        <v>100</v>
       </c>
       <c r="E14">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F14">
         <v>9</v>
       </c>
       <c r="G14">
-        <v>129.63999999999999</v>
+        <v>207.27</v>
       </c>
       <c r="H14">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0.18</v>
       </c>
       <c r="J14">
-        <v>-96</v>
+        <v>-67</v>
       </c>
       <c r="K14">
-        <v>3.7908059999999999</v>
+        <v>2.7204290000000002</v>
       </c>
       <c r="L14">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="M14">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -30001,142 +30001,236 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>308</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D15">
-        <v>34.18</v>
+        <v>100</v>
       </c>
       <c r="E15">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F15">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G15">
-        <v>129.63999999999999</v>
+        <v>174.54</v>
       </c>
       <c r="H15">
         <v>15</v>
       </c>
       <c r="I15">
-        <v>0.18</v>
+        <v>1</v>
       </c>
       <c r="J15">
-        <v>-67</v>
+        <v>-121</v>
       </c>
       <c r="K15">
-        <v>2.7204290000000002</v>
+        <v>4.2734269999999999</v>
       </c>
       <c r="L15">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="M15">
-        <v>58</v>
+        <v>107</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
         <v>31</v>
       </c>
       <c r="D16">
-        <v>32.94</v>
+        <v>93.4</v>
       </c>
       <c r="E16">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F16">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G16">
-        <v>129.63999999999999</v>
+        <v>163.58000000000001</v>
       </c>
       <c r="H16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I16">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="J16">
-        <v>-71</v>
+        <v>-59</v>
       </c>
       <c r="K16">
-        <v>2.1273819999999999</v>
+        <v>1.7955559999999999</v>
       </c>
       <c r="L16">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M16">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O16">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
         <v>31</v>
       </c>
       <c r="D17">
-        <v>16.89</v>
+        <v>68.599999999999994</v>
       </c>
       <c r="E17">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F17">
+        <v>8</v>
+      </c>
+      <c r="G17">
+        <v>124.07</v>
+      </c>
+      <c r="H17">
+        <v>14</v>
+      </c>
+      <c r="I17">
+        <v>0.59</v>
+      </c>
+      <c r="J17">
+        <v>-41</v>
+      </c>
+      <c r="K17">
+        <v>0.91326200000000002</v>
+      </c>
+      <c r="L17">
+        <v>11</v>
+      </c>
+      <c r="M17">
+        <v>21</v>
+      </c>
+      <c r="N17">
+        <v>2</v>
+      </c>
+      <c r="O17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18">
+        <v>66.19</v>
+      </c>
+      <c r="E18">
+        <v>16</v>
+      </c>
+      <c r="F18">
+        <v>6</v>
+      </c>
+      <c r="G18">
+        <v>119.71</v>
+      </c>
+      <c r="H18">
+        <v>10</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>-86</v>
+      </c>
+      <c r="K18">
+        <v>3.7367970000000001</v>
+      </c>
+      <c r="L18">
+        <v>32</v>
+      </c>
+      <c r="M18">
+        <v>70</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19">
+        <v>65.28</v>
+      </c>
+      <c r="E19">
+        <v>16</v>
+      </c>
+      <c r="F19">
         <v>5</v>
       </c>
-      <c r="G17">
-        <v>129.63999999999999</v>
-      </c>
-      <c r="H17">
-        <v>15</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-      <c r="J17">
+      <c r="G19">
+        <v>239.88</v>
+      </c>
+      <c r="H19">
+        <v>21</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
         <v>-163</v>
       </c>
-      <c r="K17">
+      <c r="K19">
         <v>9.2431970000000003</v>
       </c>
-      <c r="L17">
+      <c r="L19">
         <v>65</v>
       </c>
-      <c r="M17">
+      <c r="M19">
         <v>176</v>
       </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
         <v>8</v>
       </c>
     </row>
@@ -30156,12 +30250,12 @@
         <v>29</v>
       </c>
       <c r="C35">
-        <f>COUNTIF(C2:C17,"WIN")</f>
-        <v>5</v>
+        <f>COUNTIF(C2:C19,"WIN")</f>
+        <v>7</v>
       </c>
       <c r="D35">
-        <f>AVERAGE(D2:D17)</f>
-        <v>66.035000000000011</v>
+        <f>AVERAGE(D2:D19)</f>
+        <v>69.808888888888887</v>
       </c>
       <c r="J35" t="e">
         <f>AVERAGEA(#REF!)</f>
@@ -30173,7 +30267,7 @@
         <v>31</v>
       </c>
       <c r="C36">
-        <f>COUNTIF(C2:C17,"LOSE")</f>
+        <f>COUNTIF(C2:C19,"LOSE")</f>
         <v>9</v>
       </c>
       <c r="J36" t="e">
@@ -30186,7 +30280,7 @@
         <v>45</v>
       </c>
       <c r="C37">
-        <f>COUNTIF(C2:C17,"TIME_OUT")</f>
+        <f>COUNTIF(C2:C19,"TIME_OUT")</f>
         <v>2</v>
       </c>
     </row>
@@ -30196,7 +30290,7 @@
       </c>
       <c r="C38">
         <f>SUM(C35:C37)</f>
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -30244,7 +30338,275 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:D17">
+  <conditionalFormatting sqref="D2:D19">
+    <cfRule type="colorScale" priority="187">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4:D5">
+    <cfRule type="colorScale" priority="172">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6:D7">
+    <cfRule type="colorScale" priority="157">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8:D9">
+    <cfRule type="colorScale" priority="127">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10:D11">
+    <cfRule type="colorScale" priority="112">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12:D13">
+    <cfRule type="colorScale" priority="97">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14:D15">
+    <cfRule type="colorScale" priority="82">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
+    <cfRule type="colorScale" priority="61">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34:D1048576 D1">
+    <cfRule type="colorScale" priority="209">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:N19">
+    <cfRule type="colorScale" priority="708">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4:N5">
+    <cfRule type="colorScale" priority="710">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6:N7">
+    <cfRule type="colorScale" priority="712">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8:N9">
+    <cfRule type="colorScale" priority="714">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10:N11">
+    <cfRule type="colorScale" priority="716">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12:N13">
+    <cfRule type="colorScale" priority="718">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14:N15">
+    <cfRule type="colorScale" priority="720">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16:N16">
+    <cfRule type="colorScale" priority="722">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17:N17">
+    <cfRule type="colorScale" priority="724">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34:O1048576 D1:N1">
+    <cfRule type="colorScale" priority="704">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E19">
+    <cfRule type="colorScale" priority="177">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="178">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4:E5">
+    <cfRule type="colorScale" priority="162">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="163">
       <colorScale>
         <cfvo type="min"/>
@@ -30256,7 +30618,15 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4:D5">
+  <conditionalFormatting sqref="E6:E7">
+    <cfRule type="colorScale" priority="147">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="148">
       <colorScale>
         <cfvo type="min"/>
@@ -30268,8 +30638,16 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6:D7">
-    <cfRule type="colorScale" priority="133">
+  <conditionalFormatting sqref="E8:E9">
+    <cfRule type="colorScale" priority="117">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="118">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -30280,7 +30658,15 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8:D9">
+  <conditionalFormatting sqref="E10:E11">
+    <cfRule type="colorScale" priority="102">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="103">
       <colorScale>
         <cfvo type="min"/>
@@ -30292,7 +30678,15 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D10:D11">
+  <conditionalFormatting sqref="E12:E13">
+    <cfRule type="colorScale" priority="87">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="88">
       <colorScale>
         <cfvo type="min"/>
@@ -30304,7 +30698,15 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D12:D13">
+  <conditionalFormatting sqref="E14:E15">
+    <cfRule type="colorScale" priority="72">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="73">
       <colorScale>
         <cfvo type="min"/>
@@ -30316,8 +30718,16 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D14:D15">
-    <cfRule type="colorScale" priority="58">
+  <conditionalFormatting sqref="E16">
+    <cfRule type="colorScale" priority="51">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -30328,7 +30738,15 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
+  <conditionalFormatting sqref="E17">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
@@ -30340,8 +30758,16 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
-    <cfRule type="colorScale" priority="22">
+  <conditionalFormatting sqref="E34:E1048576 E1">
+    <cfRule type="colorScale" priority="213">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="217">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -30352,8 +30778,470 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34:D1048576 D1">
-    <cfRule type="colorScale" priority="185">
+  <conditionalFormatting sqref="F2:F19">
+    <cfRule type="colorScale" priority="176">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="179">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4:F5">
+    <cfRule type="colorScale" priority="161">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="164">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6:F7">
+    <cfRule type="colorScale" priority="146">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="149">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8:F9">
+    <cfRule type="colorScale" priority="116">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="119">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F10:F11">
+    <cfRule type="colorScale" priority="101">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="104">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12:F13">
+    <cfRule type="colorScale" priority="86">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="89">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14:F15">
+    <cfRule type="colorScale" priority="71">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="74">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16">
+    <cfRule type="colorScale" priority="50">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="53">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F34:F1048576 F1">
+    <cfRule type="colorScale" priority="221">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="225">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1:H19 H22:H1048576">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H19">
+    <cfRule type="colorScale" priority="180">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4:H5">
+    <cfRule type="colorScale" priority="165">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6:H7">
+    <cfRule type="colorScale" priority="150">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8:H9">
+    <cfRule type="colorScale" priority="120">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10:H11">
+    <cfRule type="colorScale" priority="105">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12:H13">
+    <cfRule type="colorScale" priority="90">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14:H15">
+    <cfRule type="colorScale" priority="75">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16">
+    <cfRule type="colorScale" priority="54">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17">
+    <cfRule type="colorScale" priority="39">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H34:H1048576 H1">
+    <cfRule type="colorScale" priority="229">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I19">
+    <cfRule type="colorScale" priority="181">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4:I5">
+    <cfRule type="colorScale" priority="166">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I6:I7">
+    <cfRule type="colorScale" priority="151">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I8:I9">
+    <cfRule type="colorScale" priority="121">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I10:I11">
+    <cfRule type="colorScale" priority="106">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12:I13">
+    <cfRule type="colorScale" priority="91">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14:I15">
+    <cfRule type="colorScale" priority="76">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16">
+    <cfRule type="colorScale" priority="55">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I17">
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I22:I1048576">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I34:I1048576">
+    <cfRule type="colorScale" priority="608">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J1:J15 K22:K1048576">
+    <cfRule type="colorScale" priority="68">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -30364,16 +31252,20 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E17">
-    <cfRule type="colorScale" priority="153">
+  <conditionalFormatting sqref="J34:J1048576 I1">
+    <cfRule type="colorScale" priority="237">
       <colorScale>
         <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="154">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1:K15 L22:L1048576">
+    <cfRule type="colorScale" priority="67">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -30384,195 +31276,295 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E5">
-    <cfRule type="colorScale" priority="138">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="139">
+  <conditionalFormatting sqref="K2:K19">
+    <cfRule type="colorScale" priority="186">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E7">
-    <cfRule type="colorScale" priority="123">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="124">
+  <conditionalFormatting sqref="K4:K5">
+    <cfRule type="colorScale" priority="171">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E8:E9">
-    <cfRule type="colorScale" priority="93">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="94">
+  <conditionalFormatting sqref="K6:K7">
+    <cfRule type="colorScale" priority="156">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E10:E11">
-    <cfRule type="colorScale" priority="78">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="79">
+  <conditionalFormatting sqref="K8:K9">
+    <cfRule type="colorScale" priority="126">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E13">
-    <cfRule type="colorScale" priority="63">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="64">
+  <conditionalFormatting sqref="K10:K11">
+    <cfRule type="colorScale" priority="111">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E14:E15">
-    <cfRule type="colorScale" priority="48">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="49">
+  <conditionalFormatting sqref="K12:K13">
+    <cfRule type="colorScale" priority="96">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E16">
-    <cfRule type="colorScale" priority="27">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="28">
+  <conditionalFormatting sqref="K14:K15">
+    <cfRule type="colorScale" priority="81">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E17">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="13">
+  <conditionalFormatting sqref="K16">
+    <cfRule type="colorScale" priority="60">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E34:E1048576 E1">
-    <cfRule type="colorScale" priority="189">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="193">
+  <conditionalFormatting sqref="K17">
+    <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F17">
+  <conditionalFormatting sqref="L1:L15 M22:M1048576">
+    <cfRule type="colorScale" priority="66">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:L19">
+    <cfRule type="colorScale" priority="182">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L4:L5">
+    <cfRule type="colorScale" priority="167">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L6:L7">
     <cfRule type="colorScale" priority="152">
       <colorScale>
         <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
         <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L8:L9">
+    <cfRule type="colorScale" priority="122">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L10:L11">
+    <cfRule type="colorScale" priority="107">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L12:L13">
+    <cfRule type="colorScale" priority="92">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L14:L15">
+    <cfRule type="colorScale" priority="77">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L16">
+    <cfRule type="colorScale" priority="56">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L17">
+    <cfRule type="colorScale" priority="41">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1:K19 L22:L1048576">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L34:L1048576 K1">
+    <cfRule type="colorScale" priority="241">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M1:M15 N22:N1048576">
+    <cfRule type="colorScale" priority="65">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:M19">
+    <cfRule type="colorScale" priority="185">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M4:M5">
+    <cfRule type="colorScale" priority="170">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M6:M7">
     <cfRule type="colorScale" priority="155">
       <colorScale>
         <cfvo type="min"/>
@@ -30584,35 +31576,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4:F5">
-    <cfRule type="colorScale" priority="137">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="140">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F6:F7">
-    <cfRule type="colorScale" priority="122">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
+  <conditionalFormatting sqref="M8:M9">
     <cfRule type="colorScale" priority="125">
       <colorScale>
         <cfvo type="min"/>
@@ -30624,15 +31588,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F8:F9">
-    <cfRule type="colorScale" priority="92">
+  <conditionalFormatting sqref="M10:M11">
+    <cfRule type="colorScale" priority="110">
       <colorScale>
         <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
         <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M12:M13">
     <cfRule type="colorScale" priority="95">
       <colorScale>
         <cfvo type="min"/>
@@ -30644,15 +31612,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F10:F11">
-    <cfRule type="colorScale" priority="77">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
+  <conditionalFormatting sqref="M14:M15">
     <cfRule type="colorScale" priority="80">
       <colorScale>
         <cfvo type="min"/>
@@ -30664,16 +31624,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F12:F13">
-    <cfRule type="colorScale" priority="62">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="65">
+  <conditionalFormatting sqref="M16">
+    <cfRule type="colorScale" priority="59">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -30684,16 +31636,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F14:F15">
-    <cfRule type="colorScale" priority="47">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="50">
+  <conditionalFormatting sqref="M17">
+    <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -30704,560 +31648,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F16">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="29">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F17">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F34:F1048576 F1">
-    <cfRule type="colorScale" priority="197">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="201">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H17">
-    <cfRule type="colorScale" priority="156">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4:H5">
-    <cfRule type="colorScale" priority="141">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H6:H7">
-    <cfRule type="colorScale" priority="126">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H8:H9">
-    <cfRule type="colorScale" priority="96">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H10:H11">
-    <cfRule type="colorScale" priority="81">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H12:H13">
-    <cfRule type="colorScale" priority="66">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H14:H15">
-    <cfRule type="colorScale" priority="51">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H16">
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H17">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H34:H1048576 H1">
-    <cfRule type="colorScale" priority="205">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I17">
-    <cfRule type="colorScale" priority="157">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I4:I5">
-    <cfRule type="colorScale" priority="142">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I6:I7">
-    <cfRule type="colorScale" priority="127">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I8:I9">
-    <cfRule type="colorScale" priority="97">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I10:I11">
-    <cfRule type="colorScale" priority="82">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I12:I13">
-    <cfRule type="colorScale" priority="67">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I14:I15">
-    <cfRule type="colorScale" priority="52">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I16">
-    <cfRule type="colorScale" priority="31">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I17">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J34:J1048576 I1">
-    <cfRule type="colorScale" priority="213">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J15 K18:K1048576">
-    <cfRule type="colorScale" priority="44">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K15 L18:L1048576">
-    <cfRule type="colorScale" priority="43">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K17">
-    <cfRule type="colorScale" priority="162">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K4:K5">
-    <cfRule type="colorScale" priority="147">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K6:K7">
-    <cfRule type="colorScale" priority="132">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K8:K9">
-    <cfRule type="colorScale" priority="102">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K10:K11">
-    <cfRule type="colorScale" priority="87">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K12:K13">
-    <cfRule type="colorScale" priority="72">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K14:K15">
-    <cfRule type="colorScale" priority="57">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K16">
-    <cfRule type="colorScale" priority="36">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K17">
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L34:L1048576 K1">
-    <cfRule type="colorScale" priority="217">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L15 M18:M1048576">
-    <cfRule type="colorScale" priority="42">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L17">
-    <cfRule type="colorScale" priority="158">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L4:L5">
-    <cfRule type="colorScale" priority="143">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L6:L7">
-    <cfRule type="colorScale" priority="128">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L8:L9">
-    <cfRule type="colorScale" priority="98">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L10:L11">
-    <cfRule type="colorScale" priority="83">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L12:L13">
-    <cfRule type="colorScale" priority="68">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L14:L15">
-    <cfRule type="colorScale" priority="53">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L16">
-    <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L17">
-    <cfRule type="colorScale" priority="17">
+  <conditionalFormatting sqref="L1:L19 M22:M1048576">
+    <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -31269,7 +31661,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M34:M1048576 L1">
-    <cfRule type="colorScale" priority="221">
+    <cfRule type="colorScale" priority="245">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -31280,8 +31672,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M15 N18:N1048576">
-    <cfRule type="colorScale" priority="41">
+  <conditionalFormatting sqref="N1:N15 O22:O1048576">
+    <cfRule type="colorScale" priority="64">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -31292,140 +31684,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M17">
-    <cfRule type="colorScale" priority="161">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M4:M5">
-    <cfRule type="colorScale" priority="146">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M6:M7">
-    <cfRule type="colorScale" priority="131">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M8:M9">
-    <cfRule type="colorScale" priority="101">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M10:M11">
-    <cfRule type="colorScale" priority="86">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M12:M13">
-    <cfRule type="colorScale" priority="71">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M14:M15">
-    <cfRule type="colorScale" priority="56">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M16">
-    <cfRule type="colorScale" priority="35">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M17">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N34:N1048576 M1">
-    <cfRule type="colorScale" priority="225">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N15 O18:O1048576">
-    <cfRule type="colorScale" priority="40">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N17">
-    <cfRule type="colorScale" priority="160">
+  <conditionalFormatting sqref="N2:N19">
+    <cfRule type="colorScale" priority="184">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -31437,7 +31697,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4:N5">
-    <cfRule type="colorScale" priority="145">
+    <cfRule type="colorScale" priority="169">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -31449,7 +31709,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6:N7">
-    <cfRule type="colorScale" priority="130">
+    <cfRule type="colorScale" priority="154">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -31461,7 +31721,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N8:N9">
-    <cfRule type="colorScale" priority="100">
+    <cfRule type="colorScale" priority="124">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -31473,7 +31733,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N10:N11">
-    <cfRule type="colorScale" priority="85">
+    <cfRule type="colorScale" priority="109">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -31485,7 +31745,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N12:N13">
-    <cfRule type="colorScale" priority="70">
+    <cfRule type="colorScale" priority="94">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -31497,7 +31757,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N14:N15">
-    <cfRule type="colorScale" priority="55">
+    <cfRule type="colorScale" priority="79">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -31509,7 +31769,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N16">
-    <cfRule type="colorScale" priority="34">
+    <cfRule type="colorScale" priority="58">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -31521,7 +31781,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N17">
-    <cfRule type="colorScale" priority="19">
+    <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -31532,8 +31792,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O34:O1048576 N1">
-    <cfRule type="colorScale" priority="229">
+  <conditionalFormatting sqref="M1:M19 N22:N1048576">
+    <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -31543,31 +31803,7 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O18:O1048576 N1:N17">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N18:N1048576 M1:M17">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="6">
+    <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -31576,54 +31812,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M18:M1048576 L1:L17">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L18:L1048576 K1:K17">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I18:I1048576">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I34:I1048576">
-    <cfRule type="colorScale" priority="584">
+  <conditionalFormatting sqref="N34:N1048576 M1">
+    <cfRule type="colorScale" priority="249">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -31635,7 +31825,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:O17">
-    <cfRule type="dataBar" priority="617">
+    <cfRule type="dataBar" priority="641">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -31648,8 +31838,32 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34:O1048576 D1:N1">
-    <cfRule type="colorScale" priority="680">
+  <conditionalFormatting sqref="N1:N19 O22:O1048576">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O34:O1048576 N1">
+    <cfRule type="colorScale" priority="253">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18:D21">
+    <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -31660,8 +31874,18 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:N17">
-    <cfRule type="colorScale" priority="684">
+  <conditionalFormatting sqref="E18:E21">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18:E21">
+    <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -31672,8 +31896,114 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4:N5">
-    <cfRule type="colorScale" priority="686">
+  <conditionalFormatting sqref="F18:F21">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F18:F21">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H18:H21">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I18:I21">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K18:K21">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L18:L21">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M18:M21">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N18:N21">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O20:O21">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O20:O21">
+    <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -31684,8 +32014,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6:N7">
-    <cfRule type="colorScale" priority="688">
+  <conditionalFormatting sqref="Q20:S21 D20:O21">
+    <cfRule type="colorScale" priority="817">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -31696,8 +32026,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8:N9">
-    <cfRule type="colorScale" priority="690">
+  <conditionalFormatting sqref="D18:N19">
+    <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -31708,64 +32038,102 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D10:N11">
-    <cfRule type="colorScale" priority="692">
+  <conditionalFormatting sqref="I1:I1048576">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L1:L1048576">
+    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D12:N13">
-    <cfRule type="colorScale" priority="694">
+  <conditionalFormatting sqref="M1:M1048576">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D14:N15">
-    <cfRule type="colorScale" priority="696">
+  <conditionalFormatting sqref="N1:N1048576">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D16:N16">
-    <cfRule type="colorScale" priority="698">
+  <conditionalFormatting sqref="P11">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2C864B7E-D385-46FA-BE07-A943272DC05E}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1:K1048576">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17:N17">
-    <cfRule type="colorScale" priority="700">
+  <conditionalFormatting sqref="H1:H1048576">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O1:O1048576">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{4892D916-0950-4ADB-8382-4C81759E621D}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -31787,6 +32155,32 @@
           </x14:cfRule>
           <xm:sqref>O1:O17</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{2C864B7E-D385-46FA-BE07-A943272DC05E}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>P11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{4892D916-0950-4ADB-8382-4C81759E621D}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>O1:O1048576</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
@@ -31797,8 +32191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B542EE2-F317-4A75-B91B-245BC02C5954}">
   <dimension ref="A1:T265"/>
   <sheetViews>
-    <sheetView zoomScale="15" zoomScaleNormal="15" workbookViewId="0">
-      <selection activeCell="AQ137" sqref="AQ137"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N47" sqref="N47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44982,6 +45376,18 @@
     </row>
   </sheetData>
   <dataConsolidate/>
+  <conditionalFormatting sqref="D255:D258 D259:Z1048576 F255:Z258 D1:P253">
+    <cfRule type="colorScale" priority="276">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D255:D1048576 D1:D253">
     <cfRule type="colorScale" priority="14">
       <colorScale>
@@ -45146,18 +45552,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D255:D258 D259:Z1048576 F255:Z258 D1:P253">
-    <cfRule type="colorScale" priority="276">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
